--- a/Team_M2JC_Report.xlsx
+++ b/Team_M2JC_Report.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Downloads\555-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
-    <sheet name="Stories" sheetId="11" r:id="rId9"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId2"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId3"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId6"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
+    <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="170">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Initials</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,22 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,33 +230,6 @@
     <t>List all multiple births in a GEDCOM file</t>
   </si>
   <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
     <t>Story Name</t>
   </si>
   <si>
@@ -386,39 +338,6 @@
     <t>List multiple births</t>
   </si>
   <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
     <t>Story ID</t>
   </si>
   <si>
@@ -516,36 +435,6 @@
   </si>
   <si>
     <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
   </si>
   <si>
     <t>Dates before current date</t>
@@ -686,12 +575,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -722,10 +611,13 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
@@ -737,6 +629,12 @@
     <font>
       <sz val="13"/>
       <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -831,7 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -852,10 +750,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,9 +783,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -966,12 +868,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -997,22 +902,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,24 +929,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1063,7 +973,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1096,14 +1006,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1132,7 +1042,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535.0</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,12 +1054,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1204,7 +1119,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1227,7 +1142,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1259,7 +1180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1328,7 +1255,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1387,7 +1320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1450,7 +1389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1514,7 +1459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1577,7 +1528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1641,7 +1598,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1978,127 +1941,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.4609375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.07421875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
+      <c r="E1" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="28">
         <v>555</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
@@ -2106,10 +2070,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2117,234 +2081,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="7"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2356,18 +2142,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B15" s="11">
         <v>41065</v>
@@ -2381,9 +2167,9 @@
       <c r="F15" s="12"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B16" s="11">
         <v>41078</v>
@@ -2406,9 +2192,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B17" s="11">
         <v>41092</v>
@@ -2431,9 +2217,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B18" s="11">
         <v>41106</v>
@@ -2456,9 +2242,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B19" s="11">
         <v>41120</v>
@@ -2488,25 +2274,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2517,16 +2303,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41535</v>
       </c>
@@ -2545,290 +2331,509 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.84375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="21">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="17">
         <v>75</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="17">
         <v>60</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="17">
         <v>75</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <v>60</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17">
         <v>75</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>60</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17">
         <v>75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>60</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17">
         <v>75</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="F6" s="17">
+        <v>60</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17">
         <v>75</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F7" s="17">
         <v>60</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17">
         <v>75</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F8" s="17">
         <v>60</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="17">
         <v>75</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="17">
         <v>60</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="21">
-        <v>75</v>
-      </c>
-      <c r="F9" s="21">
-        <v>60</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="28">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="24">
         <f>SUM(E2:E9)</f>
         <v>600</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <f>SUM(F2:F9)</f>
         <v>480</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="24">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="24">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="25"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="25" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="26" t="s">
-        <v>37</v>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.4609375" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="24">
+        <f>SUM(E2:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <f>SUM(F2:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <f>SUM(H2:H9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2839,213 +2844,175 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="17"/>
+    <col min="2" max="2" width="26.4609375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="C7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="C8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="28">
+      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="24">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="24">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="24">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3053,180 +3020,179 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="21"/>
-    <col min="2" max="2" width="26.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="10.84375" style="17"/>
+    <col min="2" max="2" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="C7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="C8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="28">
+      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="24">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="24">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="24">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3238,695 +3204,435 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="21"/>
-    <col min="2" max="2" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="21"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="28">
-        <f>SUM(E2:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
-        <f>SUM(F2:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="28">
-        <f>SUM(G2:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
-        <f>SUM(H2:H9)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>121</v>
       </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>124</v>
       </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>69</v>
-      </c>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="C43" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Team_M2JC_Report.xlsx
+++ b/Team_M2JC_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Downloads\555-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanslot\OneDrive\课程相关\17Fall\CS 555\Project\555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="D1F89168FB057B755066A2A655A317B81BD9ED13" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{747ED1DC-9AC9-4D83-BC9F-CC130E4DAB43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="28800" windowHeight="16423" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="168">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,12 +502,6 @@
   </si>
   <si>
     <t>MY</t>
-  </si>
-  <si>
-    <t>LIU</t>
-  </si>
-  <si>
-    <t>TIU</t>
   </si>
   <si>
     <t>cs</t>
@@ -580,7 +575,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -589,35 +584,37 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -637,6 +634,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -729,24 +742,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -783,84 +787,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -878,7 +893,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1015,7 +1030,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1948,121 +1963,121 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.4609375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.07421875" style="28"/>
+    <col min="1" max="1" width="7.86328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.46484375" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="11.06640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="B6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="26" t="s">
+    <row r="9" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>555</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
@@ -2088,66 +2103,66 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" style="5"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2155,114 +2170,114 @@
       <c r="A15" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>41065</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>24</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>41078</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>250</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>120</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>41092</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>480</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>135</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>41106</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>740</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>41120</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>1100</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <v>145</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>148.9655172413793</v>
       </c>
@@ -2282,38 +2297,38 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" style="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>41535</v>
       </c>
       <c r="B2">
@@ -2339,281 +2354,281 @@
       <selection activeCell="H10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="6"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>75</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>60</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14">
+        <v>75</v>
+      </c>
+      <c r="F3" s="14">
+        <v>60</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14">
+        <v>75</v>
+      </c>
+      <c r="F4" s="14">
+        <v>60</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14">
+        <v>75</v>
+      </c>
+      <c r="F6" s="14">
+        <v>60</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14">
+        <v>75</v>
+      </c>
+      <c r="F7" s="14">
+        <v>60</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E8" s="14">
         <v>75</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F8" s="14">
         <v>60</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E9" s="14">
         <v>75</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F9" s="14">
         <v>60</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="17">
-        <v>75</v>
-      </c>
-      <c r="F5" s="17">
-        <v>60</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="17">
-        <v>75</v>
-      </c>
-      <c r="F6" s="17">
-        <v>60</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="17">
-        <v>75</v>
-      </c>
-      <c r="F7" s="17">
-        <v>60</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="17">
-        <v>75</v>
-      </c>
-      <c r="F8" s="17">
-        <v>60</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="17">
-        <v>75</v>
-      </c>
-      <c r="F9" s="17">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <f>SUM(E2:E9)</f>
         <v>600</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f>SUM(F2:F9)</f>
         <v>480</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="18"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2632,206 +2647,206 @@
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.4609375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.46484375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="D3" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="D9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -2851,168 +2866,168 @@
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="17"/>
-    <col min="2" max="2" width="26.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="17"/>
+    <col min="1" max="1" width="10.86328125" style="14"/>
+    <col min="2" max="2" width="26.46484375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.86328125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>169</v>
+      <c r="D2" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>169</v>
+      <c r="D3" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D8" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>169</v>
+      <c r="D9" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3031,168 +3046,168 @@
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="17"/>
-    <col min="2" max="2" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="17"/>
+    <col min="1" max="1" width="10.86328125" style="14"/>
+    <col min="2" max="2" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.86328125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>169</v>
+      <c r="D2" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>169</v>
+      <c r="D3" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D8" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>169</v>
+      <c r="D9" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3208,434 +3223,436 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.06640625" style="31"/>
+    <col min="2" max="2" width="28.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="11.06640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
-        <v>149</v>
+      <c r="D9" s="31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C34" s="10"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C35" s="10"/>
+      <c r="C35" s="32"/>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
+      <c r="C36" s="32"/>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C37" s="10"/>
+      <c r="C37" s="32"/>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C38" s="10"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C39" s="10"/>
+      <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C40" s="10"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C41" s="10"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C42" s="10"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="C43" s="10"/>
+      <c r="C43" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>